--- a/CPI and Inflation Results/Index_2024-04-08.xlsx
+++ b/CPI and Inflation Results/Index_2024-04-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendeas/Desktop/CypERN/04.Billion Prices Cyprus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7ABCD3-04FF-294D-A74B-9200E14E2361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905077D8-B1C2-FC40-9F42-935B24A6CF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="16100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -530,7 +530,7 @@
         <v>215.04663264513269</v>
       </c>
       <c r="D6">
-        <v>0.77348509705849711</v>
+        <v>0.75264087483627484</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -572,7 +572,7 @@
         <v>21.81989250863295</v>
       </c>
       <c r="D9">
-        <v>0.29676706681129389</v>
+        <v>0.29680391229861108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>45868.434902727276</v>
       </c>
       <c r="D13">
-        <v>689.3351589968787</v>
+        <v>689.33529654452127</v>
       </c>
     </row>
   </sheetData>
